--- a/assignment 2 test cases(instagram,facebook).xlsx
+++ b/assignment 2 test cases(instagram,facebook).xlsx
@@ -5,27 +5,28 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\testing projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Ankitatesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="862" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="862" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instagram" sheetId="1" r:id="rId1"/>
     <sheet name="facebook" sheetId="2" r:id="rId2"/>
     <sheet name="whatsapp web" sheetId="3" r:id="rId3"/>
     <sheet name="art of testing" sheetId="4" r:id="rId4"/>
-    <sheet name="Pen" sheetId="5" r:id="rId5"/>
-    <sheet name="door" sheetId="7" r:id="rId6"/>
-    <sheet name="Atm" sheetId="8" r:id="rId7"/>
-    <sheet name="microwave oven" sheetId="9" r:id="rId8"/>
-    <sheet name="coffee vending machine" sheetId="10" r:id="rId9"/>
-    <sheet name="chair" sheetId="11" r:id="rId10"/>
-    <sheet name="wrist watch" sheetId="12" r:id="rId11"/>
-    <sheet name="lift" sheetId="13" r:id="rId12"/>
-    <sheet name=" whatsapp group,chat" sheetId="14" r:id="rId13"/>
-    <sheet name="Gmail " sheetId="16" r:id="rId14"/>
+    <sheet name="online product buying" sheetId="17" r:id="rId5"/>
+    <sheet name="Pen" sheetId="5" r:id="rId6"/>
+    <sheet name="door" sheetId="7" r:id="rId7"/>
+    <sheet name="Atm" sheetId="8" r:id="rId8"/>
+    <sheet name="microwave oven" sheetId="9" r:id="rId9"/>
+    <sheet name="coffee vending machine" sheetId="10" r:id="rId10"/>
+    <sheet name="chair" sheetId="11" r:id="rId11"/>
+    <sheet name="wrist watch" sheetId="12" r:id="rId12"/>
+    <sheet name="lift" sheetId="13" r:id="rId13"/>
+    <sheet name=" whatsapp group,chat" sheetId="14" r:id="rId14"/>
+    <sheet name="Gmail " sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="566">
   <si>
     <t>Test case id</t>
   </si>
@@ -1551,6 +1552,213 @@
   </si>
   <si>
     <t>Verify that received mail is not display with sender email id so its difficult to understand</t>
+  </si>
+  <si>
+    <t>username:samairanaranje        password:Testing          1430</t>
+  </si>
+  <si>
+    <t>username:samairanaranje        password:325465471430</t>
+  </si>
+  <si>
+    <t>username:samairanaranje        password:Testing14304756685634875765475856745328</t>
+  </si>
+  <si>
+    <t>username:samairanaranje        password:Testing8</t>
+  </si>
+  <si>
+    <t>username:samairanaranje        password:Testing1430%</t>
+  </si>
+  <si>
+    <t>its open the Sign up page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> its open the new create page </t>
+  </si>
+  <si>
+    <t>check website URL</t>
+  </si>
+  <si>
+    <t>Check Login button</t>
+  </si>
+  <si>
+    <t>Check login with Facebook option</t>
+  </si>
+  <si>
+    <t>While clicking on that its open the Facebook account page</t>
+  </si>
+  <si>
+    <t>Check forgotten your password option</t>
+  </si>
+  <si>
+    <t>Check signup button</t>
+  </si>
+  <si>
+    <t>While clicking on that its open the signup page</t>
+  </si>
+  <si>
+    <t>Check Get it on google play button</t>
+  </si>
+  <si>
+    <t>While clicking on that its redirect to play store page</t>
+  </si>
+  <si>
+    <t>Check Get it from Microsoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While clicking on that its redirect to Microsoft store page to download </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify to open the google play store download and install flipcart application </t>
+  </si>
+  <si>
+    <t>verify the internet connection is off</t>
+  </si>
+  <si>
+    <t>Verify to open the flipcart application</t>
+  </si>
+  <si>
+    <t>verify the webside does not open in some perticular browser</t>
+  </si>
+  <si>
+    <t>Verify to choose language and continue the button</t>
+  </si>
+  <si>
+    <t>verify that website is not responsive to different device</t>
+  </si>
+  <si>
+    <t>Verify that search the product</t>
+  </si>
+  <si>
+    <t>verify the invalid credential are accepted in login</t>
+  </si>
+  <si>
+    <t>verify that on product page user can select the product 's size, color options</t>
+  </si>
+  <si>
+    <t>verify the searching result is inconvenient</t>
+  </si>
+  <si>
+    <t>Verify that user can add the product to cart</t>
+  </si>
+  <si>
+    <t>verify the filter option does not work properly</t>
+  </si>
+  <si>
+    <t>Verify that user can add the product to whishlist</t>
+  </si>
+  <si>
+    <t>verify the image of the product is different from product name</t>
+  </si>
+  <si>
+    <t>Verify that limit to the number of product</t>
+  </si>
+  <si>
+    <t>verify the image of the product is not properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can add or change the address </t>
+  </si>
+  <si>
+    <t>verify the information of the product is not display properly</t>
+  </si>
+  <si>
+    <t>Check the availability of the product</t>
+  </si>
+  <si>
+    <t>verify the product discription is not relevant</t>
+  </si>
+  <si>
+    <t>verify that the user can see the previously added products on the cart page, after signing in to the application</t>
+  </si>
+  <si>
+    <t>verify the page load speed is low</t>
+  </si>
+  <si>
+    <t>verify that the user can successfully buy more than one products that were added to his/her cart</t>
+  </si>
+  <si>
+    <t>verify the wishlist option is not working</t>
+  </si>
+  <si>
+    <t>verify that the cash on Delivery option of payment is working fine</t>
+  </si>
+  <si>
+    <t>verify the user can not allow to add products from different categories in cart</t>
+  </si>
+  <si>
+    <t>verify that the different prepaid methods of payments are working fine</t>
+  </si>
+  <si>
+    <t>verify the items are not clickable</t>
+  </si>
+  <si>
+    <t>verify  that product return functionality works correctly</t>
+  </si>
+  <si>
+    <t>verify the items links does not lead to coresponding product page</t>
+  </si>
+  <si>
+    <t>verify proceed to the checkout page</t>
+  </si>
+  <si>
+    <t>verify the add to cart button is not working</t>
+  </si>
+  <si>
+    <t>verify that the user's shipping and billing information is correct</t>
+  </si>
+  <si>
+    <t>verify the session time is early expired</t>
+  </si>
+  <si>
+    <t>verify enter the payment information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the dublicate products </t>
+  </si>
+  <si>
+    <t>verify that the payment is processed successfully</t>
+  </si>
+  <si>
+    <t>verify the cash on delivery option not available</t>
+  </si>
+  <si>
+    <t>verify confirm the order</t>
+  </si>
+  <si>
+    <t>verify the items in a cart disapppear after close the site</t>
+  </si>
+  <si>
+    <t>verify  that the order has been placed successfully</t>
+  </si>
+  <si>
+    <t>verify the cash on delivery option not acceptable</t>
+  </si>
+  <si>
+    <t>verify that the order is listed under the user's account page</t>
+  </si>
+  <si>
+    <t>verify the product is not deliver on time</t>
+  </si>
+  <si>
+    <t>verify the tracking system is not available or not working</t>
+  </si>
+  <si>
+    <t>verify EMI option is not available</t>
+  </si>
+  <si>
+    <t>verify bank offer option not available</t>
+  </si>
+  <si>
+    <t>verify the voice assistant is not available</t>
+  </si>
+  <si>
+    <t>verify the scan related product option not available</t>
+  </si>
+  <si>
+    <t>verify the wrong product delivered</t>
+  </si>
+  <si>
+    <t>verify the unneccessary notification received</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1887,6 +2095,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2204,17 +2427,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="34.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="32" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" style="2" customWidth="1"/>
@@ -3006,13 +3229,420 @@
         <v>65</v>
       </c>
     </row>
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="32">
+        <v>2</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="32">
+        <v>100</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="32">
+        <v>200</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="32">
+        <v>300</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="32">
+        <v>400</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="32">
+        <v>500</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>513</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="C21" s="35"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
@@ -3348,7 +3978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -3602,7 +4232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -3828,7 +4458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
@@ -3844,10 +4474,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="52" t="s">
         <v>380</v>
       </c>
-      <c r="C1" s="48"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -4070,11 +4700,11 @@
       <c r="C23" s="19"/>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
@@ -4348,11 +4978,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4569,8 +5199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4588,11 +5218,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -4664,10 +5294,10 @@
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="45"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4728,6 +5358,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
       <c r="B15" s="5">
         <v>2</v>
       </c>
@@ -4754,6 +5387,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>3</v>
+      </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
@@ -4779,7 +5415,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>4</v>
+      </c>
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -4805,7 +5444,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>5</v>
+      </c>
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -4831,7 +5473,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>6</v>
+      </c>
       <c r="B19" s="5">
         <v>2</v>
       </c>
@@ -4857,7 +5502,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>7</v>
+      </c>
       <c r="B20" s="5">
         <v>2</v>
       </c>
@@ -4883,7 +5531,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>8</v>
+      </c>
       <c r="B21" s="5">
         <v>2</v>
       </c>
@@ -4909,7 +5560,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>9</v>
+      </c>
       <c r="B22" s="5">
         <v>2</v>
       </c>
@@ -4935,7 +5589,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>10</v>
+      </c>
       <c r="B23" s="5">
         <v>2</v>
       </c>
@@ -4961,7 +5618,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>11</v>
+      </c>
       <c r="B24" s="5">
         <v>2</v>
       </c>
@@ -4987,7 +5647,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>12</v>
+      </c>
       <c r="B25" s="5">
         <v>2</v>
       </c>
@@ -5013,7 +5676,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>13</v>
+      </c>
       <c r="B26" s="5">
         <v>2</v>
       </c>
@@ -5039,7 +5705,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>14</v>
+      </c>
       <c r="B27" s="5">
         <v>2</v>
       </c>
@@ -5052,6 +5721,9 @@
       <c r="E27" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="F27" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G27" s="4" t="s">
         <v>22</v>
       </c>
@@ -5062,7 +5734,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>15</v>
+      </c>
       <c r="B28" s="5">
         <v>2</v>
       </c>
@@ -5075,6 +5750,9 @@
       <c r="E28" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="F28" s="6" t="s">
+        <v>497</v>
+      </c>
       <c r="G28" s="4" t="s">
         <v>22</v>
       </c>
@@ -5085,7 +5763,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>16</v>
+      </c>
       <c r="B29" s="5">
         <v>2</v>
       </c>
@@ -5098,6 +5779,9 @@
       <c r="E29" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="F29" s="6" t="s">
+        <v>498</v>
+      </c>
       <c r="G29" s="4" t="s">
         <v>22</v>
       </c>
@@ -5108,7 +5792,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>17</v>
+      </c>
       <c r="B30" s="5">
         <v>2</v>
       </c>
@@ -5121,6 +5808,9 @@
       <c r="E30" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="F30" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G30" s="4" t="s">
         <v>22</v>
       </c>
@@ -5131,7 +5821,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>18</v>
+      </c>
       <c r="B31" s="5">
         <v>2</v>
       </c>
@@ -5144,6 +5837,9 @@
       <c r="E31" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="F31" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G31" s="4" t="s">
         <v>22</v>
       </c>
@@ -5154,7 +5850,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>19</v>
+      </c>
       <c r="B32" s="5">
         <v>2</v>
       </c>
@@ -5167,6 +5866,9 @@
       <c r="E32" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="F32" s="6" t="s">
+        <v>499</v>
+      </c>
       <c r="G32" s="4" t="s">
         <v>22</v>
       </c>
@@ -5177,7 +5879,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>20</v>
+      </c>
       <c r="B33" s="5">
         <v>2</v>
       </c>
@@ -5190,6 +5895,9 @@
       <c r="E33" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="F33" s="6" t="s">
+        <v>500</v>
+      </c>
       <c r="G33" s="4" t="s">
         <v>22</v>
       </c>
@@ -5200,7 +5908,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>21</v>
+      </c>
       <c r="B34" s="5">
         <v>2</v>
       </c>
@@ -5213,6 +5924,9 @@
       <c r="E34" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="F34" s="6" t="s">
+        <v>501</v>
+      </c>
       <c r="G34" s="4" t="s">
         <v>22</v>
       </c>
@@ -5223,37 +5937,91 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>22</v>
+      </c>
+      <c r="B35" s="5">
+        <v>3</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>23</v>
+      </c>
+      <c r="B36" s="5">
+        <v>4</v>
+      </c>
       <c r="C36" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>24</v>
+      </c>
+      <c r="B37" s="5">
+        <v>5</v>
+      </c>
       <c r="C37" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="7" t="s">
         <v>114</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="1048576" spans="9:9" x14ac:dyDescent="0.25">
@@ -5292,12 +6060,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:74" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -5420,11 +6188,11 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:74" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:74" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -6448,12 +7216,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:74" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -6552,13 +7320,13 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:74" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:74" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -7005,6 +7773,337 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="42.28515625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>18</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <v>20</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
+        <v>22</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="32">
+        <v>23</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="32">
+        <v>24</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
+        <v>25</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="32">
+        <v>26</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
+        <v>27</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
+        <v>28</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
+        <v>29</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7359,7 +8458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -7653,7 +8752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -8014,7 +9113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C72"/>
   <sheetViews>
@@ -8432,308 +9531,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="C15" s="34"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="C16" s="34"/>
-    </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="C17" s="34"/>
-    </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="C18" s="34"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="C19" s="34"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="C20" s="34"/>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="C21" s="35"/>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>